--- a/results/lancet2018/global/1.3 labour/total loss across sectors.xlsx
+++ b/results/lancet2018/global/1.3 labour/total loss across sectors.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,16 +20,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>Agriculture</t>
+    <t>agriculture</t>
   </si>
   <si>
-    <t>Industry</t>
+    <t>industry</t>
   </si>
   <si>
-    <t>Service</t>
+    <t>service</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -408,16 +408,16 @@
         <v>2000</v>
       </c>
       <c r="B2" t="n">
-        <v>82483887853.17311</v>
+        <v>83236699886.45638</v>
       </c>
       <c r="C2" t="n">
-        <v>7583032185.479131</v>
+        <v>7578005464.143801</v>
       </c>
       <c r="D2" t="n">
-        <v>782634396.6105458</v>
+        <v>753517383.74819</v>
       </c>
       <c r="E2" t="n">
-        <v>90849554435.26279</v>
+        <v>91568222734.34836</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>2001</v>
       </c>
       <c r="B3" t="n">
-        <v>86231740065.81071</v>
+        <v>87064159572.17648</v>
       </c>
       <c r="C3" t="n">
-        <v>8217926431.532072</v>
+        <v>8192525499.967028</v>
       </c>
       <c r="D3" t="n">
-        <v>856701390.6744812</v>
+        <v>821054990.8547665</v>
       </c>
       <c r="E3" t="n">
-        <v>95306367888.01727</v>
+        <v>96077740062.99828</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2002</v>
       </c>
       <c r="B4" t="n">
-        <v>92801210365.91737</v>
+        <v>93555504355.74474</v>
       </c>
       <c r="C4" t="n">
-        <v>10447960538.92783</v>
+        <v>10455708444.88105</v>
       </c>
       <c r="D4" t="n">
-        <v>1359212208.645998</v>
+        <v>1304934856.602446</v>
       </c>
       <c r="E4" t="n">
-        <v>104608383113.4912</v>
+        <v>105316147657.2282</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>2003</v>
       </c>
       <c r="B5" t="n">
-        <v>99032751593.69087</v>
+        <v>100103748154.3203</v>
       </c>
       <c r="C5" t="n">
-        <v>11862206303.27807</v>
+        <v>11919951796.69023</v>
       </c>
       <c r="D5" t="n">
-        <v>1539204966.574852</v>
+        <v>1493387298.707382</v>
       </c>
       <c r="E5" t="n">
-        <v>112434162863.5438</v>
+        <v>113517087249.7179</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>2004</v>
       </c>
       <c r="B6" t="n">
-        <v>87231724306.52281</v>
+        <v>88047578944.85124</v>
       </c>
       <c r="C6" t="n">
-        <v>9749401544.733553</v>
+        <v>9738767335.765388</v>
       </c>
       <c r="D6" t="n">
-        <v>829288481.3231925</v>
+        <v>789391315.9951202</v>
       </c>
       <c r="E6" t="n">
-        <v>97810414332.57956</v>
+        <v>98575737596.61176</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>2005</v>
       </c>
       <c r="B7" t="n">
-        <v>96702122355.13229</v>
+        <v>97633053701.45749</v>
       </c>
       <c r="C7" t="n">
-        <v>12378735002.72908</v>
+        <v>12368828258.39794</v>
       </c>
       <c r="D7" t="n">
-        <v>1588638738.811417</v>
+        <v>1541752860.476776</v>
       </c>
       <c r="E7" t="n">
-        <v>110669496096.6728</v>
+        <v>111543634820.3322</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>2006</v>
       </c>
       <c r="B8" t="n">
-        <v>95281446249.98933</v>
+        <v>96108125440.2608</v>
       </c>
       <c r="C8" t="n">
-        <v>12657586974.31703</v>
+        <v>12628067640.43207</v>
       </c>
       <c r="D8" t="n">
-        <v>1391526372.057279</v>
+        <v>1321755628.100571</v>
       </c>
       <c r="E8" t="n">
-        <v>109330559596.3636</v>
+        <v>110057948708.7934</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>2007</v>
       </c>
       <c r="B9" t="n">
-        <v>95814861138.51392</v>
+        <v>96631920787.5327</v>
       </c>
       <c r="C9" t="n">
-        <v>13749476952.38688</v>
+        <v>13764858019.77327</v>
       </c>
       <c r="D9" t="n">
-        <v>1613961262.592005</v>
+        <v>1526159392.652283</v>
       </c>
       <c r="E9" t="n">
-        <v>111178299353.4928</v>
+        <v>111922938199.9583</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>2008</v>
       </c>
       <c r="B10" t="n">
-        <v>77955136674.14742</v>
+        <v>78504736307.2597</v>
       </c>
       <c r="C10" t="n">
-        <v>9620831089.803453</v>
+        <v>9566698538.133671</v>
       </c>
       <c r="D10" t="n">
-        <v>958407013.1006263</v>
+        <v>903203232.9707099</v>
       </c>
       <c r="E10" t="n">
-        <v>88534374777.0515</v>
+        <v>88974638078.36407</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>2009</v>
       </c>
       <c r="B11" t="n">
-        <v>98543110508.56993</v>
+        <v>99380129790.09358</v>
       </c>
       <c r="C11" t="n">
-        <v>14872058448.53459</v>
+        <v>14903673411.76414</v>
       </c>
       <c r="D11" t="n">
-        <v>1732155625.779558</v>
+        <v>1624294025.557411</v>
       </c>
       <c r="E11" t="n">
-        <v>115147324582.8841</v>
+        <v>115908097227.4151</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>2010</v>
       </c>
       <c r="B12" t="n">
-        <v>116906325870.0038</v>
+        <v>118151227431.6553</v>
       </c>
       <c r="C12" t="n">
-        <v>19894443255.37545</v>
+        <v>19969516219.13202</v>
       </c>
       <c r="D12" t="n">
-        <v>2456733538.391772</v>
+        <v>2373393476.853415</v>
       </c>
       <c r="E12" t="n">
-        <v>139257502663.771</v>
+        <v>140494137127.6407</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>2011</v>
       </c>
       <c r="B13" t="n">
-        <v>84369206914.1179</v>
+        <v>84943026782.37149</v>
       </c>
       <c r="C13" t="n">
-        <v>13563297743.88372</v>
+        <v>13498476735.93865</v>
       </c>
       <c r="D13" t="n">
-        <v>1417543074.647187</v>
+        <v>1319846526.234793</v>
       </c>
       <c r="E13" t="n">
-        <v>99350047732.64882</v>
+        <v>99761350044.54492</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>2012</v>
       </c>
       <c r="B14" t="n">
-        <v>90156954778.53206</v>
+        <v>91118629664.14116</v>
       </c>
       <c r="C14" t="n">
-        <v>16153479843.70457</v>
+        <v>16189974279.68987</v>
       </c>
       <c r="D14" t="n">
-        <v>2103282021.848783</v>
+        <v>2010541141.59996</v>
       </c>
       <c r="E14" t="n">
-        <v>108413716644.0854</v>
+        <v>109319145085.431</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>2013</v>
       </c>
       <c r="B15" t="n">
-        <v>99985203519.84647</v>
+        <v>100766279809.007</v>
       </c>
       <c r="C15" t="n">
-        <v>18386731074.09625</v>
+        <v>18391641680.26121</v>
       </c>
       <c r="D15" t="n">
-        <v>1958805523.626363</v>
+        <v>1867763070.770656</v>
       </c>
       <c r="E15" t="n">
-        <v>120330740117.5691</v>
+        <v>121025684560.0388</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>2014</v>
       </c>
       <c r="B16" t="n">
-        <v>100229464866.2874</v>
+        <v>101175926299.6032</v>
       </c>
       <c r="C16" t="n">
-        <v>19043886017.13084</v>
+        <v>19119573715.68653</v>
       </c>
       <c r="D16" t="n">
-        <v>2473854842.989531</v>
+        <v>2374826211.865846</v>
       </c>
       <c r="E16" t="n">
-        <v>121747205726.4077</v>
+        <v>122670326227.1556</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>2015</v>
       </c>
       <c r="B17" t="n">
-        <v>105560798359.364</v>
+        <v>106516787153.3308</v>
       </c>
       <c r="C17" t="n">
-        <v>20218993263.88361</v>
+        <v>20319409051.92025</v>
       </c>
       <c r="D17" t="n">
-        <v>2322981048.935291</v>
+        <v>2199879450.542597</v>
       </c>
       <c r="E17" t="n">
-        <v>128102772672.1828</v>
+        <v>129036075655.7937</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>2016</v>
       </c>
       <c r="B18" t="n">
-        <v>129507997666.3772</v>
+        <v>130899633223.106</v>
       </c>
       <c r="C18" t="n">
-        <v>28219899200.08527</v>
+        <v>28381647688.70259</v>
       </c>
       <c r="D18" t="n">
-        <v>3978438559.587773</v>
+        <v>3853458494.96728</v>
       </c>
       <c r="E18" t="n">
-        <v>161706335426.0502</v>
+        <v>163134739406.7759</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>2017</v>
       </c>
       <c r="B19" t="n">
-        <v>122138627075.5077</v>
+        <v>123530014056.6205</v>
       </c>
       <c r="C19" t="n">
-        <v>26985958168.0364</v>
+        <v>27164923805.64284</v>
       </c>
       <c r="D19" t="n">
-        <v>3868552577.850684</v>
+        <v>3699930199.728431</v>
       </c>
       <c r="E19" t="n">
-        <v>152993137821.3948</v>
+        <v>154394868061.9918</v>
       </c>
     </row>
   </sheetData>
